--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8244226988961</v>
+        <v>96.34565503219014</v>
       </c>
       <c r="D2" t="n">
-        <v>16.92785160134794</v>
+        <v>15.11599461097302</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.52248691617355</v>
+        <v>91.75614671425701</v>
       </c>
       <c r="D3" t="n">
-        <v>15.02560825654916</v>
+        <v>14.87560306836709</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.19533744051995</v>
+        <v>89.89327552572553</v>
       </c>
       <c r="D4" t="n">
-        <v>17.23687151641427</v>
+        <v>16.02618606017734</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.89050324960141</v>
+        <v>88.67238725282219</v>
       </c>
       <c r="D5" t="n">
-        <v>16.65063676867423</v>
+        <v>15.74044901513501</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.33260815633481</v>
+        <v>87.21586557660679</v>
       </c>
       <c r="D6" t="n">
-        <v>15.07677288083694</v>
+        <v>13.36699327510703</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.42479661131905</v>
+        <v>90.21806322422039</v>
       </c>
       <c r="D7" t="n">
-        <v>17.17051334568498</v>
+        <v>14.80372076692332</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.14714163575553</v>
+        <v>87.34184099588293</v>
       </c>
       <c r="D8" t="n">
-        <v>17.33511947303583</v>
+        <v>15.73901906385646</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.49279288527978</v>
+        <v>84.19104779844456</v>
       </c>
       <c r="D9" t="n">
-        <v>16.91974186729728</v>
+        <v>14.37905954897567</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.55380818732711</v>
+        <v>82.44631380193123</v>
       </c>
       <c r="D10" t="n">
-        <v>19.12268415633621</v>
+        <v>13.73208725296439</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.86255912942278</v>
+        <v>82.33104268965508</v>
       </c>
       <c r="D11" t="n">
-        <v>14.51366916341814</v>
+        <v>16.24942759815216</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.20834266725919</v>
+        <v>81.61688645526586</v>
       </c>
       <c r="D12" t="n">
-        <v>16.48073831580042</v>
+        <v>13.6819274462453</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.57677757587972</v>
+        <v>80.82168872705506</v>
       </c>
       <c r="D13" t="n">
-        <v>15.03924930007309</v>
+        <v>15.65450481504358</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.73369578721669</v>
+        <v>80.70095407670418</v>
       </c>
       <c r="D14" t="n">
-        <v>16.39209037272488</v>
+        <v>15.14719952476099</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.50874532441796</v>
+        <v>77.77534966563911</v>
       </c>
       <c r="D15" t="n">
-        <v>16.01194786583874</v>
+        <v>15.97524993197908</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.4582643867067</v>
+        <v>80.11442865095428</v>
       </c>
       <c r="D16" t="n">
-        <v>15.06844808770278</v>
+        <v>15.99752504135711</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.83044297768728</v>
+        <v>78.73387312909749</v>
       </c>
       <c r="D17" t="n">
-        <v>16.20889576121533</v>
+        <v>14.5667081853513</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.84792404062972</v>
+        <v>75.39905522508425</v>
       </c>
       <c r="D18" t="n">
-        <v>16.12937044423986</v>
+        <v>14.76732114417956</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.89023109678924</v>
+        <v>73.22237139456087</v>
       </c>
       <c r="D19" t="n">
-        <v>16.19126143970083</v>
+        <v>15.09516360371743</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.6343059853636</v>
+        <v>73.28051372141034</v>
       </c>
       <c r="D20" t="n">
-        <v>16.33829654555622</v>
+        <v>14.9222505759588</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.2194023347398</v>
+        <v>71.77944851778511</v>
       </c>
       <c r="D21" t="n">
-        <v>15.33632010897925</v>
+        <v>15.29406313652149</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.48886164679888</v>
+        <v>71.08044469179379</v>
       </c>
       <c r="D22" t="n">
-        <v>16.26660656333634</v>
+        <v>14.1481177326872</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.17135687959795</v>
+        <v>71.00232940576508</v>
       </c>
       <c r="D23" t="n">
-        <v>17.98301534869286</v>
+        <v>14.3701928701665</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.67366321609758</v>
+        <v>69.71249635952053</v>
       </c>
       <c r="D24" t="n">
-        <v>15.56480983866656</v>
+        <v>15.15422876918823</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.28185104686753</v>
+        <v>68.78654303098368</v>
       </c>
       <c r="D25" t="n">
-        <v>14.85421518155517</v>
+        <v>13.68077998210995</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.62552387379874</v>
+        <v>66.85526986931177</v>
       </c>
       <c r="D26" t="n">
-        <v>15.06059842464721</v>
+        <v>15.21703393232488</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.67800443272034</v>
+        <v>63.93610345821133</v>
       </c>
       <c r="D27" t="n">
-        <v>15.76470890992346</v>
+        <v>14.82360690986691</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.99575890430272</v>
+        <v>66.76420921865781</v>
       </c>
       <c r="D28" t="n">
-        <v>16.47183999316665</v>
+        <v>14.56720646573027</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.41776660950558</v>
+        <v>63.09746159636305</v>
       </c>
       <c r="D29" t="n">
-        <v>16.48784763878447</v>
+        <v>17.32051909276431</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.38956304442941</v>
+        <v>66.98698036021803</v>
       </c>
       <c r="D30" t="n">
-        <v>16.72713590978776</v>
+        <v>15.19788112965756</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.37480256383959</v>
+        <v>61.62479846843115</v>
       </c>
       <c r="D31" t="n">
-        <v>15.82063472748025</v>
+        <v>15.62961575408386</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.15109882718289</v>
+        <v>60.73557433357213</v>
       </c>
       <c r="D32" t="n">
-        <v>14.64514041368971</v>
+        <v>14.02370821391042</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.60817506798025</v>
+        <v>60.11097577888231</v>
       </c>
       <c r="D33" t="n">
-        <v>16.782441558986</v>
+        <v>13.60091287219366</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.78829274444115</v>
+        <v>56.63305976080639</v>
       </c>
       <c r="D34" t="n">
-        <v>17.5567070504551</v>
+        <v>15.6244008078636</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.25063401565651</v>
+        <v>55.35632645470875</v>
       </c>
       <c r="D35" t="n">
-        <v>13.80292052975652</v>
+        <v>13.8314677292144</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.08017171153227</v>
+        <v>55.74632276520752</v>
       </c>
       <c r="D36" t="n">
-        <v>13.98512958237032</v>
+        <v>15.26993253754767</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94472882371947</v>
+        <v>54.93569192976932</v>
       </c>
       <c r="D37" t="n">
-        <v>16.60236477858084</v>
+        <v>15.65749392705519</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.36833456309429</v>
+        <v>54.65566167043832</v>
       </c>
       <c r="D38" t="n">
-        <v>14.67872081183604</v>
+        <v>15.857433765918</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.27832289998741</v>
+        <v>54.5883571792892</v>
       </c>
       <c r="D39" t="n">
-        <v>14.4883019626933</v>
+        <v>14.95426766060964</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.88827722370321</v>
+        <v>51.96443422303053</v>
       </c>
       <c r="D40" t="n">
-        <v>16.13700070741191</v>
+        <v>14.99486156610952</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.91786770476268</v>
+        <v>50.91121313629966</v>
       </c>
       <c r="D41" t="n">
-        <v>16.74713132067708</v>
+        <v>14.45506877596673</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.01042512211684</v>
+        <v>48.21435511879246</v>
       </c>
       <c r="D42" t="n">
-        <v>15.08273945167745</v>
+        <v>15.0798803853184</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.43379881821764</v>
+        <v>51.50582246070007</v>
       </c>
       <c r="D43" t="n">
-        <v>17.13156686319242</v>
+        <v>15.06979564517358</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.3634841427506</v>
+        <v>46.54116162045546</v>
       </c>
       <c r="D44" t="n">
-        <v>15.59217773444182</v>
+        <v>16.32739260854</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.34778552853473</v>
+        <v>47.00895660296819</v>
       </c>
       <c r="D45" t="n">
-        <v>13.40723164736094</v>
+        <v>14.41273879803109</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.1359754599245</v>
+        <v>44.01561326372008</v>
       </c>
       <c r="D46" t="n">
-        <v>14.63739525136448</v>
+        <v>14.65220079094751</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.54277856481511</v>
+        <v>43.90410989280087</v>
       </c>
       <c r="D47" t="n">
-        <v>16.05590551255433</v>
+        <v>14.53899034083709</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.80150317116715</v>
+        <v>43.52220373962251</v>
       </c>
       <c r="D48" t="n">
-        <v>16.1949297534438</v>
+        <v>15.997021350681</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.59753432877003</v>
+        <v>42.01183306731369</v>
       </c>
       <c r="D49" t="n">
-        <v>13.38975579563391</v>
+        <v>14.23229982512384</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.79115322475968</v>
+        <v>41.83281739429204</v>
       </c>
       <c r="D50" t="n">
-        <v>14.3507202935819</v>
+        <v>16.03873660958432</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.52883259999363</v>
+        <v>43.08885078200397</v>
       </c>
       <c r="D51" t="n">
-        <v>16.21307399193113</v>
+        <v>16.1744445630992</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.82788265348004</v>
+        <v>40.58584118199671</v>
       </c>
       <c r="D52" t="n">
-        <v>15.2359227398891</v>
+        <v>14.71181394505312</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.9868716580313</v>
+        <v>36.45712028122859</v>
       </c>
       <c r="D53" t="n">
-        <v>15.01219667633997</v>
+        <v>14.01242659913572</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.44766551141343</v>
+        <v>35.51565469178703</v>
       </c>
       <c r="D54" t="n">
-        <v>14.86245664275226</v>
+        <v>13.94258585595245</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.2956759712785</v>
+        <v>36.36665185659892</v>
       </c>
       <c r="D55" t="n">
-        <v>16.23099917766001</v>
+        <v>15.09548659781602</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>32.84838928765653</v>
+        <v>35.25213503735242</v>
       </c>
       <c r="D56" t="n">
-        <v>15.26900389049367</v>
+        <v>14.34747618294832</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.87886553366182</v>
+        <v>32.71622745864481</v>
       </c>
       <c r="D57" t="n">
-        <v>15.78135819474004</v>
+        <v>15.0764883049897</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>37.95729656486846</v>
+        <v>34.36361855094782</v>
       </c>
       <c r="D58" t="n">
-        <v>14.36781646445416</v>
+        <v>15.48532492330541</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.6401304664651</v>
+        <v>34.65141527004759</v>
       </c>
       <c r="D59" t="n">
-        <v>15.05888637734567</v>
+        <v>14.42596566799039</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.70634099548222</v>
+        <v>31.3986088337984</v>
       </c>
       <c r="D60" t="n">
-        <v>14.25439253433871</v>
+        <v>15.2495676448581</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.27843054920891</v>
+        <v>29.51928067086708</v>
       </c>
       <c r="D61" t="n">
-        <v>15.44973012532839</v>
+        <v>13.5076917628473</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.46968465484515</v>
+        <v>30.76189134143473</v>
       </c>
       <c r="D62" t="n">
-        <v>14.53209465690476</v>
+        <v>15.65699861452264</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.36585229206131</v>
+        <v>26.95078829479024</v>
       </c>
       <c r="D63" t="n">
-        <v>13.64009655462939</v>
+        <v>15.3238143109406</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>31.03041822438331</v>
+        <v>28.34589087998189</v>
       </c>
       <c r="D64" t="n">
-        <v>13.91353815025406</v>
+        <v>16.92503173014665</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.1472694206263</v>
+        <v>23.179918415328</v>
       </c>
       <c r="D65" t="n">
-        <v>15.49432359356917</v>
+        <v>14.11716247338854</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.10254132617504</v>
+        <v>25.93131519975655</v>
       </c>
       <c r="D66" t="n">
-        <v>14.04863934149286</v>
+        <v>15.06689152955088</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>28.23024083013541</v>
+        <v>26.03040671042236</v>
       </c>
       <c r="D67" t="n">
-        <v>14.28152944054034</v>
+        <v>14.38024035301499</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.37298506928383</v>
+        <v>21.06384398009026</v>
       </c>
       <c r="D68" t="n">
-        <v>15.23120031071919</v>
+        <v>16.46737490985117</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.64508318535183</v>
+        <v>21.9635535958115</v>
       </c>
       <c r="D69" t="n">
-        <v>15.90105196192969</v>
+        <v>14.07882288538412</v>
       </c>
     </row>
   </sheetData>
